--- a/BalanceSheet/FB_bal.xlsx
+++ b/BalanceSheet/FB_bal.xlsx
@@ -250,7 +250,7 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>64219000000.0</v>
+        <v>64476000000.0</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>62195000000.0</v>
@@ -265,7 +265,7 @@
         <v>60426000000.0</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>54863000000.0</v>
+        <v>54855000000.0</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>52269000000.0</v>
@@ -511,10 +511,8 @@
           <t>Other current assets</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B4" s="0" t="n">
+        <v>2570000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2140000000.0</v>
@@ -840,7 +838,7 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>47720000000.0</v>
+        <v>57922000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>54981000000.0</v>
@@ -855,7 +853,7 @@
         <v>46486000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>44783000000.0</v>
+        <v>35323000000.0</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>32284000000.0</v>
@@ -971,7 +969,7 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>6342000000.0</v>
+        <v>6463000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6371000000.0</v>
@@ -986,7 +984,7 @@
         <v>172000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>192000000.0</v>
+        <v>86000000.0</v>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
@@ -1297,7 +1295,7 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2376000000.0</v>
+        <v>2255000000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2621000000.0</v>
@@ -1312,7 +1310,7 @@
         <v>2715000000.0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>2567000000.0</v>
+        <v>2673000000.0</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>2461000000.0</v>
@@ -1686,7 +1684,7 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>878000000.0</v>
+        <v>1562000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2646000000.0</v>
@@ -1701,7 +1699,7 @@
         <v>1328000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>2649000000.0</v>
+        <v>1363000000.0</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>860000000.0</v>
@@ -1947,10 +1945,8 @@
           <t>Current Part of Debt</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>1040000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1091000000.0</v>
@@ -2442,10 +2438,8 @@
           <t>Other current liabilities</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>9793000000.0</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>9428000000.0</v>
@@ -2770,10 +2764,8 @@
           <t>Long Term Debt (Total)</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>10574000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>10086000000.0</v>
@@ -2927,10 +2919,8 @@
           <t>Long Term Tax Liability (Deferred)</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B20" s="0" t="n">
+        <v>418000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>-376000000.0</v>
@@ -3140,7 +3130,7 @@
         <v>4114000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>6302000000.0</v>
+        <v>7745000000.0</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>8735000000.0</v>
@@ -3517,10 +3507,8 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B24" s="0" t="n">
+        <v>51160000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>50018000000.0</v>
@@ -4572,10 +4560,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>2841000000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2849000000.0</v>
@@ -5040,7 +5026,7 @@
         </is>
       </c>
       <c r="B34" s="0" t="n">
-        <v>-64219000000.0</v>
+        <v>-52862000000.0</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>-51018000000.0</v>
@@ -5170,10 +5156,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B35" s="0" t="n">
+        <v>11614000000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>11177000000.0</v>

--- a/BalanceSheet/FB_bal.xlsx
+++ b/BalanceSheet/FB_bal.xlsx
@@ -5041,7 +5041,7 @@
         <v>-49612000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>-43789000000.0</v>
+        <v>-43781000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>-43137000000.0</v>
